--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-07.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TEX@TENN</t>
+          <t>SC@LSU</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -601,12 +601,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -662,17 +662,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TEX@TENN</t>
+          <t>UGA@FLA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SC@LSU</t>
+          <t>TEX@TENN</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -784,17 +784,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TA&amp;M@AUB</t>
+          <t>TEX@TENN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,28 +803,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UGA@FLA</t>
+          <t>TA&amp;M@AUB</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OU@MSST</t>
+          <t>MIZ@UK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MIZ@UK</t>
+          <t>OU@MSST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,14 +1230,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1245,13 +1245,13 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SC@LSU</t>
+          <t>TA&amp;M@AUB</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -1450,22 +1450,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TA&amp;M@AUB</t>
+          <t>SC@LSU</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -1694,22 +1694,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ARK@MISS</t>
+          <t>OU@MSST</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@UK</t>
+          <t>ARK@MISS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ARK@MISS</t>
+          <t>MIZ@UK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>OU@MSST</t>
+          <t>ARK@MISS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1962,16 +1962,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2243,22 +2243,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Jayden Quaintance</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ARK@MISS</t>
+          <t>MIZ@UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OU@MSST</t>
+          <t>ARK@MISS</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ALA@VAN</t>
+          <t>OU@MSST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
         <v>3</v>
       </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -2492,17 +2492,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jayden Quaintance</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MIZ@UK</t>
+          <t>ALA@VAN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,28 +2511,28 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UGA@FLA</t>
+          <t>SC@LSU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -2792,22 +2792,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SC@LSU</t>
+          <t>UGA@FLA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
+        <v>12</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="n">
         <v>6</v>
       </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3463,22 +3463,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TEX@TENN</t>
+          <t>TA&amp;M@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3529,17 +3529,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TA&amp;M@AUB</t>
+          <t>TEX@TENN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ALA@VAN</t>
+          <t>OU@MSST</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I57" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J57" t="n">
+        <v>7</v>
+      </c>
+      <c r="K57" t="n">
         <v>4</v>
       </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -3951,22 +3951,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MIZ@UK</t>
+          <t>ALA@VAN</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J58" t="n">
         <v>4</v>
@@ -3987,16 +3987,16 @@
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>OU@MSST</t>
+          <t>MIZ@UK</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4036,28 +4036,28 @@
         </is>
       </c>
       <c r="H59" t="n">
+        <v>13</v>
+      </c>
+      <c r="I59" t="n">
         <v>9</v>
       </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
       <c r="J59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -5232,22 +5232,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ARK@MISS</t>
+          <t>ALA@VAN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5256,28 +5256,28 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OU@MSST</t>
+          <t>ARK@MISS</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J80" t="n">
         <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ALA@VAN</t>
+          <t>OU@MSST</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>3</v>
       </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -10086,7 +10086,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -10095,11 +10095,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -10108,11 +10108,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -10121,27 +10121,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
